--- a/Assets/ArtRes/Excel/Enum/枚举表实例.xlsx
+++ b/Assets/ArtRes/Excel/Enum/枚举表实例.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\UnityProject_Github\CIGA2024_Gamejam\Assets\ArtRes\Excel\Enum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D12882-42A5-4C13-B821-166EC53AAFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C840C839-1D30-40D5-AAB3-3FCAC299BF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10425" yWindow="6015" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Enum_Test" sheetId="1" r:id="rId1"/>
+    <sheet name="Enum_Global" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,6 +40,22 @@
   </si>
   <si>
     <t>枚举描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUSIC_BGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEVEL_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -374,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -401,6 +417,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
